--- a/Software implementation and testing/5/Шаблон для таблицы с тест-кейсами.xlsx
+++ b/Software implementation and testing/5/Шаблон для таблицы с тест-кейсами.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Seva\GitHub\TSU_TASKS\Software implementation and testing\5\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="21080" windowHeight="9030"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="21075" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>Предусловия</t>
   </si>
@@ -42,9 +37,6 @@
   </si>
   <si>
     <t>Ссылка на баг-репорт</t>
-  </si>
-  <si>
-    <t>Название калькулятора и ссылка на него</t>
   </si>
   <si>
     <t>Ожидаемый результат</t>
@@ -105,9 +97,6 @@
     <t>Снизу формы в панели результатов расчёта выведется 10 случайные числа из диапазона от 10 до 20, расположенные в порядке возрастания</t>
   </si>
   <si>
-    <t>Passed</t>
-  </si>
-  <si>
     <t xml:space="preserve">Проверка вывода ошибки в поле “Минимальное значение числа из диапазона” при вводе значения больше, чем в поле " Максимальное значение числа из диапазона </t>
   </si>
   <si>
@@ -127,13 +116,40 @@
   </si>
   <si>
     <t xml:space="preserve"> Над кнопкой «Генерировать» должна появиться ошибка “Заданного диапазона недостаточно для получения необходимого количества уникальных чисел ”</t>
+  </si>
+  <si>
+    <t>ID: 3</t>
+  </si>
+  <si>
+    <t>https://sevavik40.atlassian.net/browse/SCRUM-3</t>
+  </si>
+  <si>
+    <t>Проверка работы кнопки «“Начать новый расчет»</t>
+  </si>
+  <si>
+    <t>Нажать на кнопку “Начать новый расчет”, который появится справа от кнопки “История расчетов”.</t>
+  </si>
+  <si>
+    <t>Все поля должны очистить и выставиться по умолчанию, а так же снизу уберется панель результат расчета</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>Генератор случайных чисел - calcus.ru/random-number</t>
+  </si>
+  <si>
+    <t>Открыть сайт  https://calcus.ru/random-numberj и выполнить позитивный сценарий заполнения формы</t>
+  </si>
+  <si>
+    <t>Открыть сайт https://calcus.ru/random-number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +211,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -312,11 +336,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -326,43 +389,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -426,7 +459,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -461,7 +494,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -670,240 +703,333 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D13" sqref="D13:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" style="5" customWidth="1"/>
-    <col min="2" max="2" width="28.26953125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="21.54296875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9" style="5" customWidth="1"/>
-    <col min="5" max="5" width="47.26953125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="28.7265625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="18.26953125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="78.54296875" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="5"/>
+    <col min="1" max="1" width="10" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2" customWidth="1"/>
+    <col min="5" max="5" width="47.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="78.5703125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="17"/>
+    </row>
+    <row r="2" spans="1:9" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="G2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="4">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="4">
         <v>4</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="4">
         <v>5</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="4">
         <v>1</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="4">
         <v>2</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="9" t="s">
+      <c r="E9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="4">
         <v>3</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="11" t="s">
+      <c r="E10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="4">
+        <v>4</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13">
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="4">
+        <v>5</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="4">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="4">
+        <v>2</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="31" x14ac:dyDescent="0.35">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" ht="31" x14ac:dyDescent="0.35">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13">
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="5">
         <v>3</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" ht="34" x14ac:dyDescent="0.5">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13">
+      <c r="E15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="5">
         <v>4</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13">
+      <c r="E16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="5">
         <v>5</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13">
-        <v>1</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="26" x14ac:dyDescent="0.35">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13">
-        <v>2</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" ht="26" x14ac:dyDescent="0.35">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13">
-        <v>3</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13">
-        <v>4</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13">
-        <v>5</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
+      <c r="E17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="22">
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="B8:B12"/>
     <mergeCell ref="C8:C12"/>
@@ -919,13 +1045,21 @@
     <mergeCell ref="H3:H7"/>
     <mergeCell ref="H8:H12"/>
     <mergeCell ref="F8:F12"/>
+    <mergeCell ref="H13:H17"/>
+    <mergeCell ref="I13:I17"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="G13:G17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I8" r:id="rId1"/>
     <hyperlink ref="I3" r:id="rId2"/>
+    <hyperlink ref="I13" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -935,7 +1069,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -947,7 +1081,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
